--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_latest_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5227279424654375</v>
+        <v>0.5085426078324898</v>
       </c>
       <c r="C2">
-        <v>0.6651180676749737</v>
+        <v>0.6312770643337786</v>
       </c>
       <c r="D2">
-        <v>0.623728351277264</v>
+        <v>0.5775225091701024</v>
       </c>
       <c r="E2">
-        <v>0.7897647442607603</v>
+        <v>0.7599490174808455</v>
       </c>
       <c r="F2">
-        <v>0.6143648309873565</v>
+        <v>0.5845391272395405</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3832468562671207</v>
+        <v>0.3604583747834282</v>
       </c>
       <c r="C3">
-        <v>0.5744686872041586</v>
+        <v>0.5284892497187151</v>
       </c>
       <c r="D3">
-        <v>0.4184629435111936</v>
+        <v>0.3749043735392947</v>
       </c>
       <c r="E3">
-        <v>0.646887118059398</v>
+        <v>0.6122943520393559</v>
       </c>
       <c r="F3">
-        <v>0.5424176034771944</v>
+        <v>0.5136324539103049</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2842900832912158</v>
+        <v>0.2671644164584084</v>
       </c>
       <c r="C4">
-        <v>0.5171741722430988</v>
+        <v>0.4711099050880848</v>
       </c>
       <c r="D4">
-        <v>0.3599782315935378</v>
+        <v>0.3212841183425387</v>
       </c>
       <c r="E4">
-        <v>0.5999818593870466</v>
+        <v>0.5668192995501641</v>
       </c>
       <c r="F4">
-        <v>0.5518471924224327</v>
+        <v>0.5203199983321719</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4523133043511063</v>
+        <v>0.4282641160228051</v>
       </c>
       <c r="C5">
-        <v>0.5938624149793259</v>
+        <v>0.548481490052795</v>
       </c>
       <c r="D5">
-        <v>0.4467176622699456</v>
+        <v>0.4014706193385897</v>
       </c>
       <c r="E5">
-        <v>0.6683694055460241</v>
+        <v>0.6336170920505457</v>
       </c>
       <c r="F5">
-        <v>0.5160846545622357</v>
+        <v>0.4877336824715215</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4573882865131079</v>
+        <v>0.4297788858055521</v>
       </c>
       <c r="C6">
-        <v>0.624474568371192</v>
+        <v>0.5712726212628527</v>
       </c>
       <c r="D6">
-        <v>0.4791437415909633</v>
+        <v>0.4264280183742889</v>
       </c>
       <c r="E6">
-        <v>0.6922020959163323</v>
+        <v>0.6530145621456607</v>
       </c>
       <c r="F6">
-        <v>0.5476613886452574</v>
+        <v>0.5156451691415619</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4069737326735098</v>
+        <v>0.3783814472866451</v>
       </c>
       <c r="C7">
-        <v>0.5960499883802031</v>
+        <v>0.5371069045676157</v>
       </c>
       <c r="D7">
-        <v>0.4477503848269167</v>
+        <v>0.3902711452809265</v>
       </c>
       <c r="E7">
-        <v>0.6691415282486335</v>
+        <v>0.6247168520865485</v>
       </c>
       <c r="F7">
-        <v>0.5633720897047489</v>
+        <v>0.5239790343878171</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3541262004790215</v>
+        <v>0.3326355726653664</v>
       </c>
       <c r="C8">
-        <v>0.550639861053337</v>
+        <v>0.4945997455591428</v>
       </c>
       <c r="D8">
-        <v>0.3737538369242268</v>
+        <v>0.3233547881867544</v>
       </c>
       <c r="E8">
-        <v>0.6113541010938152</v>
+        <v>0.5686429355815075</v>
       </c>
       <c r="F8">
-        <v>0.5327539995784907</v>
+        <v>0.4891798334788348</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3916891808092169</v>
+        <v>0.3620304170102688</v>
       </c>
       <c r="C9">
-        <v>0.6122706039767245</v>
+        <v>0.5407351962130211</v>
       </c>
       <c r="D9">
-        <v>0.4400385051316838</v>
+        <v>0.3743586110673328</v>
       </c>
       <c r="E9">
-        <v>0.6633539817711837</v>
+        <v>0.6118485197067431</v>
       </c>
       <c r="F9">
-        <v>0.5782627193270111</v>
+        <v>0.5273032071390139</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.5543269194706298</v>
+        <v>0.4970330926187166</v>
       </c>
       <c r="C10">
-        <v>0.6335137830331274</v>
+        <v>0.5512696337016082</v>
       </c>
       <c r="D10">
-        <v>0.4802797865038853</v>
+        <v>0.4018017306810739</v>
       </c>
       <c r="E10">
-        <v>0.6930222121287927</v>
+        <v>0.6338783248235216</v>
       </c>
       <c r="F10">
-        <v>0.4556333431882534</v>
+        <v>0.4249154521118755</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.4564905394102681</v>
+        <v>0.4078060000532727</v>
       </c>
       <c r="C11">
-        <v>0.5400300914335169</v>
+        <v>0.4615113944401893</v>
       </c>
       <c r="D11">
-        <v>0.3254888363732021</v>
+        <v>0.259491323550082</v>
       </c>
       <c r="E11">
-        <v>0.5705162893145139</v>
+        <v>0.5094029088551439</v>
       </c>
       <c r="F11">
-        <v>0.3825983922504848</v>
+        <v>0.3343990248860763</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_latest_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5085426078324898</v>
+        <v>0.5553305257193456</v>
       </c>
       <c r="C2">
-        <v>0.6312770643337786</v>
+        <v>0.6136273584998631</v>
       </c>
       <c r="D2">
-        <v>0.5775225091701024</v>
+        <v>0.5228536874213209</v>
       </c>
       <c r="E2">
-        <v>0.7599490174808455</v>
+        <v>0.723086224057215</v>
       </c>
       <c r="F2">
-        <v>0.5845391272395405</v>
+        <v>0.4805816767817249</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3604583747834282</v>
+        <v>0.3621708991783025</v>
       </c>
       <c r="C3">
-        <v>0.5284892497187151</v>
+        <v>0.4983652827815714</v>
       </c>
       <c r="D3">
-        <v>0.3749043735392947</v>
+        <v>0.342784039812318</v>
       </c>
       <c r="E3">
-        <v>0.6122943520393559</v>
+        <v>0.585477616832888</v>
       </c>
       <c r="F3">
-        <v>0.5136324539103049</v>
+        <v>0.4788015972899659</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2671644164584084</v>
+        <v>0.322109523816475</v>
       </c>
       <c r="C4">
-        <v>0.4711099050880848</v>
+        <v>0.4916759303336116</v>
       </c>
       <c r="D4">
-        <v>0.3212841183425387</v>
+        <v>0.3220049964818212</v>
       </c>
       <c r="E4">
-        <v>0.5668192995501641</v>
+        <v>0.5674548409184833</v>
       </c>
       <c r="F4">
-        <v>0.5203199983321719</v>
+        <v>0.4879461048650333</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4282641160228051</v>
+        <v>0.4479694299613027</v>
       </c>
       <c r="C5">
-        <v>0.548481490052795</v>
+        <v>0.5810026869938167</v>
       </c>
       <c r="D5">
-        <v>0.4014706193385897</v>
+        <v>0.4406117130697931</v>
       </c>
       <c r="E5">
-        <v>0.6336170920505457</v>
+        <v>0.6637858939972987</v>
       </c>
       <c r="F5">
-        <v>0.4877336824715215</v>
+        <v>0.5137398302438039</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4297788858055521</v>
+        <v>0.4056295499570255</v>
       </c>
       <c r="C6">
-        <v>0.5712726212628527</v>
+        <v>0.5539856660635349</v>
       </c>
       <c r="D6">
-        <v>0.4264280183742889</v>
+        <v>0.4125774920458339</v>
       </c>
       <c r="E6">
-        <v>0.6530145621456607</v>
+        <v>0.6423219535761128</v>
       </c>
       <c r="F6">
-        <v>0.5156451691415619</v>
+        <v>0.5249784760111545</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3783814472866451</v>
+        <v>0.3136617854706863</v>
       </c>
       <c r="C7">
-        <v>0.5371069045676157</v>
+        <v>0.4838333121955758</v>
       </c>
       <c r="D7">
-        <v>0.3902711452809265</v>
+        <v>0.3116578194982599</v>
       </c>
       <c r="E7">
-        <v>0.6247168520865485</v>
+        <v>0.5582632170385757</v>
       </c>
       <c r="F7">
-        <v>0.5239790343878171</v>
+        <v>0.4898299366237236</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3326355726653664</v>
+        <v>0.3613000660075406</v>
       </c>
       <c r="C8">
-        <v>0.4945997455591428</v>
+        <v>0.5407655076793962</v>
       </c>
       <c r="D8">
-        <v>0.3233547881867544</v>
+        <v>0.3759763669136598</v>
       </c>
       <c r="E8">
-        <v>0.5686429355815075</v>
+        <v>0.6131691177103261</v>
       </c>
       <c r="F8">
-        <v>0.4891798334788348</v>
+        <v>0.5296237254251971</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3620304170102688</v>
+        <v>0.5028015250901602</v>
       </c>
       <c r="C9">
-        <v>0.5407351962130211</v>
+        <v>0.5533246075941491</v>
       </c>
       <c r="D9">
-        <v>0.3743586110673328</v>
+        <v>0.4051903875053499</v>
       </c>
       <c r="E9">
-        <v>0.6118485197067431</v>
+        <v>0.6365456680438175</v>
       </c>
       <c r="F9">
-        <v>0.5273032071390139</v>
+        <v>0.4216371064289196</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4970330926187166</v>
+        <v>0.4053476105038098</v>
       </c>
       <c r="C10">
-        <v>0.5512696337016082</v>
+        <v>0.459336539820115</v>
       </c>
       <c r="D10">
-        <v>0.4018017306810739</v>
+        <v>0.2581058573136952</v>
       </c>
       <c r="E10">
-        <v>0.6338783248235216</v>
+        <v>0.5080411964729782</v>
       </c>
       <c r="F10">
-        <v>0.4249154521118755</v>
+        <v>0.33549814659258</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.4078060000532727</v>
+        <v>0.4015449179333902</v>
       </c>
       <c r="C11">
-        <v>0.4615113944401893</v>
+        <v>0.4597420797009394</v>
       </c>
       <c r="D11">
-        <v>0.259491323550082</v>
+        <v>0.2670924375257908</v>
       </c>
       <c r="E11">
-        <v>0.5094029088551439</v>
+        <v>0.516809865933102</v>
       </c>
       <c r="F11">
-        <v>0.3343990248860763</v>
+        <v>0.3637549250657264</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_latest_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5553305257193456</v>
+        <v>0.5085426078324898</v>
       </c>
       <c r="C2">
-        <v>0.6136273584998631</v>
+        <v>0.6312770643337786</v>
       </c>
       <c r="D2">
-        <v>0.5228536874213209</v>
+        <v>0.5775225091701024</v>
       </c>
       <c r="E2">
-        <v>0.723086224057215</v>
+        <v>0.7599490174808455</v>
       </c>
       <c r="F2">
-        <v>0.4805816767817249</v>
+        <v>0.5845391272395405</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3621708991783025</v>
+        <v>0.3604583747834282</v>
       </c>
       <c r="C3">
-        <v>0.4983652827815714</v>
+        <v>0.5284892497187151</v>
       </c>
       <c r="D3">
-        <v>0.342784039812318</v>
+        <v>0.3749043735392947</v>
       </c>
       <c r="E3">
-        <v>0.585477616832888</v>
+        <v>0.6122943520393559</v>
       </c>
       <c r="F3">
-        <v>0.4788015972899659</v>
+        <v>0.5136324539103049</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.322109523816475</v>
+        <v>0.2671644164584084</v>
       </c>
       <c r="C4">
-        <v>0.4916759303336116</v>
+        <v>0.4711099050880848</v>
       </c>
       <c r="D4">
-        <v>0.3220049964818212</v>
+        <v>0.3212841183425387</v>
       </c>
       <c r="E4">
-        <v>0.5674548409184833</v>
+        <v>0.5668192995501641</v>
       </c>
       <c r="F4">
-        <v>0.4879461048650333</v>
+        <v>0.5203199983321719</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4479694299613027</v>
+        <v>0.4282641160228051</v>
       </c>
       <c r="C5">
-        <v>0.5810026869938167</v>
+        <v>0.548481490052795</v>
       </c>
       <c r="D5">
-        <v>0.4406117130697931</v>
+        <v>0.4014706193385897</v>
       </c>
       <c r="E5">
-        <v>0.6637858939972987</v>
+        <v>0.6336170920505457</v>
       </c>
       <c r="F5">
-        <v>0.5137398302438039</v>
+        <v>0.4877336824715215</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4056295499570255</v>
+        <v>0.4297788858055521</v>
       </c>
       <c r="C6">
-        <v>0.5539856660635349</v>
+        <v>0.5712726212628527</v>
       </c>
       <c r="D6">
-        <v>0.4125774920458339</v>
+        <v>0.4264280183742889</v>
       </c>
       <c r="E6">
-        <v>0.6423219535761128</v>
+        <v>0.6530145621456607</v>
       </c>
       <c r="F6">
-        <v>0.5249784760111545</v>
+        <v>0.5156451691415619</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3136617854706863</v>
+        <v>0.3783814472866451</v>
       </c>
       <c r="C7">
-        <v>0.4838333121955758</v>
+        <v>0.5371069045676157</v>
       </c>
       <c r="D7">
-        <v>0.3116578194982599</v>
+        <v>0.3902711452809265</v>
       </c>
       <c r="E7">
-        <v>0.5582632170385757</v>
+        <v>0.6247168520865485</v>
       </c>
       <c r="F7">
-        <v>0.4898299366237236</v>
+        <v>0.5239790343878171</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3613000660075406</v>
+        <v>0.3326355726653664</v>
       </c>
       <c r="C8">
-        <v>0.5407655076793962</v>
+        <v>0.4945997455591428</v>
       </c>
       <c r="D8">
-        <v>0.3759763669136598</v>
+        <v>0.3233547881867544</v>
       </c>
       <c r="E8">
-        <v>0.6131691177103261</v>
+        <v>0.5686429355815075</v>
       </c>
       <c r="F8">
-        <v>0.5296237254251971</v>
+        <v>0.4891798334788348</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.5028015250901602</v>
+        <v>0.3620304170102688</v>
       </c>
       <c r="C9">
-        <v>0.5533246075941491</v>
+        <v>0.5407351962130211</v>
       </c>
       <c r="D9">
-        <v>0.4051903875053499</v>
+        <v>0.3743586110673328</v>
       </c>
       <c r="E9">
-        <v>0.6365456680438175</v>
+        <v>0.6118485197067431</v>
       </c>
       <c r="F9">
-        <v>0.4216371064289196</v>
+        <v>0.5273032071390139</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4053476105038098</v>
+        <v>0.4970330926187166</v>
       </c>
       <c r="C10">
-        <v>0.459336539820115</v>
+        <v>0.5512696337016082</v>
       </c>
       <c r="D10">
-        <v>0.2581058573136952</v>
+        <v>0.4018017306810739</v>
       </c>
       <c r="E10">
-        <v>0.5080411964729782</v>
+        <v>0.6338783248235216</v>
       </c>
       <c r="F10">
-        <v>0.33549814659258</v>
+        <v>0.4249154521118755</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.4015449179333902</v>
+        <v>0.4078060000532727</v>
       </c>
       <c r="C11">
-        <v>0.4597420797009394</v>
+        <v>0.4615113944401893</v>
       </c>
       <c r="D11">
-        <v>0.2670924375257908</v>
+        <v>0.259491323550082</v>
       </c>
       <c r="E11">
-        <v>0.516809865933102</v>
+        <v>0.5094029088551439</v>
       </c>
       <c r="F11">
-        <v>0.3637549250657264</v>
+        <v>0.3343990248860763</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
